--- a/productid.xlsx
+++ b/productid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\varal\Documents\Ahmed Talha (Dharam)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3607FB3E-2FAE-41E4-9A4A-E5F464EB65FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637A008A-2A74-438C-8826-3C28BCC5CA35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="76">
   <si>
     <t>Product Brand</t>
   </si>
@@ -43,318 +43,138 @@
     <t>Print Mandarin Collar Empire Top</t>
   </si>
   <si>
-    <t>Rs. 999</t>
-  </si>
-  <si>
-    <t>4.4</t>
-  </si>
-  <si>
-    <t>4.7k</t>
-  </si>
-  <si>
     <t>Athena</t>
   </si>
   <si>
     <t>Linen Shirt Style Top</t>
   </si>
   <si>
-    <t>Rs. 594</t>
-  </si>
-  <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>397</t>
-  </si>
-  <si>
     <t>DressBerry</t>
   </si>
   <si>
     <t>Floral Embroidered Top</t>
   </si>
   <si>
-    <t>Rs. 679</t>
-  </si>
-  <si>
-    <t>3.8</t>
-  </si>
-  <si>
-    <t>943</t>
-  </si>
-  <si>
     <t>H&amp;M</t>
   </si>
   <si>
     <t>Long-Sleeved Jersey Top</t>
   </si>
   <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>1.1k</t>
-  </si>
-  <si>
     <t>Colourblocked Peplum Top</t>
   </si>
   <si>
-    <t>1.3k</t>
-  </si>
-  <si>
     <t>Annabelle by Pantaloons</t>
   </si>
   <si>
     <t>Tie-Up Neck Formal Top</t>
   </si>
   <si>
-    <t>3.7</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>Style Quotient</t>
   </si>
   <si>
     <t>Self Design Puff Sleeve Top</t>
   </si>
   <si>
-    <t>Rs. 797</t>
-  </si>
-  <si>
-    <t>1.4k</t>
-  </si>
-  <si>
     <t>Winza Designer</t>
   </si>
   <si>
     <t>Embroidered Empire Top</t>
   </si>
   <si>
-    <t>Rs. 649</t>
-  </si>
-  <si>
-    <t>627</t>
-  </si>
-  <si>
     <t>Anouk</t>
   </si>
   <si>
     <t>Mandarin Collar Empire Top</t>
   </si>
   <si>
-    <t>Rs. 593</t>
-  </si>
-  <si>
-    <t>6.1k</t>
-  </si>
-  <si>
     <t>Kibo</t>
   </si>
   <si>
     <t>Floral Print Crepe Top</t>
   </si>
   <si>
-    <t>Rs. 493</t>
-  </si>
-  <si>
-    <t>1.6k</t>
-  </si>
-  <si>
     <t>Ribbed Henley Top</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>Sangria</t>
   </si>
   <si>
     <t>Embroidered Top</t>
   </si>
   <si>
-    <t>Rs. 699</t>
-  </si>
-  <si>
-    <t>3.1k</t>
-  </si>
-  <si>
     <t>Athena Immutable</t>
   </si>
   <si>
     <t>Printed Shirt Style Top</t>
   </si>
   <si>
-    <t>Rs. 666</t>
-  </si>
-  <si>
-    <t>3.2</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
     <t>Ribbed Modal-Blend Top</t>
   </si>
   <si>
-    <t>1.2k</t>
-  </si>
-  <si>
     <t>Roadster</t>
   </si>
   <si>
     <t>Self-Design Knits Bits Top</t>
   </si>
   <si>
-    <t>Rs. 626</t>
-  </si>
-  <si>
-    <t>251</t>
-  </si>
-  <si>
     <t>Kinjo</t>
   </si>
   <si>
     <t>Shirt Style Cotton Top</t>
   </si>
   <si>
-    <t>Rs. 650</t>
-  </si>
-  <si>
-    <t>408</t>
-  </si>
-  <si>
-    <t>KBZ</t>
-  </si>
-  <si>
-    <t>Printed Cotton Top</t>
-  </si>
-  <si>
-    <t>Rs. 879</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>788</t>
-  </si>
-  <si>
     <t>FITHUB</t>
   </si>
   <si>
     <t>Opaque Shirt Style Top</t>
   </si>
   <si>
-    <t>Rs. 779</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
     <t>HERE&amp;NOW</t>
   </si>
   <si>
     <t>Print Mandarin Collar Roll-Up Sleeves Top</t>
   </si>
   <si>
-    <t>Rs. 524</t>
-  </si>
-  <si>
     <t>Printed Satin Shirt Style Top</t>
   </si>
   <si>
-    <t>Rs. 850</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
     <t>Chemistry</t>
   </si>
   <si>
     <t>Solid Textured V-Neck Top</t>
   </si>
   <si>
-    <t>Rs. 489</t>
-  </si>
-  <si>
-    <t>350</t>
-  </si>
-  <si>
     <t>Women Floral Top</t>
   </si>
   <si>
-    <t>6.2k</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
     <t>Print Shirt Style Top</t>
   </si>
   <si>
-    <t>Rs. 664</t>
-  </si>
-  <si>
-    <t>270</t>
-  </si>
-  <si>
     <t>Ginger by Lifestyle</t>
   </si>
   <si>
     <t>Striped Cotton Top</t>
   </si>
   <si>
-    <t>Rs. 539</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>SASSAFRAS</t>
   </si>
   <si>
     <t>High Neck Cropped Top</t>
   </si>
   <si>
-    <t>Rs. 419</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>36.5k</t>
-  </si>
-  <si>
     <t>Long-sleeved Jersey Top</t>
   </si>
   <si>
-    <t>1.5k</t>
-  </si>
-  <si>
     <t>Tie-Up Neck Puff Sleeves Top</t>
   </si>
   <si>
-    <t>Rs. 543</t>
-  </si>
-  <si>
     <t>Floral Print Mandarin Collar Empire Top</t>
   </si>
   <si>
     <t>Women Floral Printed Top</t>
   </si>
   <si>
-    <t>Rs. 509</t>
-  </si>
-  <si>
-    <t>1.9k</t>
-  </si>
-  <si>
     <t>Long Sleeved Jersey Top</t>
   </si>
   <si>
@@ -364,154 +184,70 @@
     <t>A-Line Top</t>
   </si>
   <si>
-    <t>Rs. 568</t>
-  </si>
-  <si>
-    <t>9.5k</t>
-  </si>
-  <si>
     <t>Extended Sleeves Blouson Top</t>
   </si>
   <si>
-    <t>692</t>
-  </si>
-  <si>
     <t>Square-Neck Top</t>
   </si>
   <si>
-    <t>4.8</t>
-  </si>
-  <si>
     <t>AAHWAN</t>
   </si>
   <si>
     <t>Cotton Tank Crop Top</t>
   </si>
   <si>
-    <t>Rs. 399</t>
-  </si>
-  <si>
-    <t>3.4</t>
-  </si>
-  <si>
-    <t>184</t>
-  </si>
-  <si>
-    <t>Rs. 569</t>
-  </si>
-  <si>
-    <t>8.4k</t>
-  </si>
-  <si>
     <t>Floral Print Top</t>
   </si>
   <si>
-    <t>Rs. 417</t>
-  </si>
-  <si>
-    <t>2.4k</t>
-  </si>
-  <si>
     <t>Cap-Sleeved Top</t>
   </si>
   <si>
-    <t>4.9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>Rain &amp; Rainbow</t>
   </si>
   <si>
     <t>Pure Cotton Empire Top</t>
   </si>
   <si>
-    <t>Rs. 987</t>
-  </si>
-  <si>
-    <t>858</t>
-  </si>
-  <si>
     <t>Maaesa</t>
   </si>
   <si>
     <t>Tie and Dye Shirt Style Top</t>
   </si>
   <si>
-    <t>Rs. 698</t>
-  </si>
-  <si>
     <t>Mandarin Collar Roll-Up Sleeves Top</t>
   </si>
   <si>
-    <t>Rs. 319</t>
-  </si>
-  <si>
     <t>Ecovero Sustainable A-Line Top</t>
   </si>
   <si>
-    <t>Rs. 447</t>
-  </si>
-  <si>
-    <t>3.9</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>ANI</t>
   </si>
   <si>
     <t>Puff Sleeves Shirt Style Top</t>
   </si>
   <si>
-    <t>5.1k</t>
-  </si>
-  <si>
-    <t>1k</t>
-  </si>
-  <si>
     <t>COTLAND FASHION</t>
   </si>
   <si>
     <t>Printed Cotton Peplum Top</t>
   </si>
   <si>
-    <t>Rs. 436</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
     <t>Striped Fitted Top</t>
   </si>
   <si>
-    <t>Rs. 599</t>
-  </si>
-  <si>
-    <t>2k</t>
-  </si>
-  <si>
     <t>Ribbed Vest Top</t>
   </si>
   <si>
-    <t>Rs. 359</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
     <t>her by invictus</t>
   </si>
   <si>
     <t>High Neck Top</t>
   </si>
   <si>
-    <t>Rs. 368</t>
-  </si>
-  <si>
-    <t>3.5k</t>
+    <t>STREET 9</t>
+  </si>
+  <si>
+    <t>Floral Georgette Fitted Top</t>
   </si>
 </sst>
 </file>
@@ -853,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -890,359 +626,356 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
+      <c r="C2">
+        <v>999</v>
+      </c>
+      <c r="D2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E2">
+        <v>4700</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>594</v>
+      </c>
+      <c r="D3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E3">
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>679</v>
+      </c>
+      <c r="D4">
+        <v>3.8</v>
+      </c>
+      <c r="E4">
+        <v>944</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E5">
+        <v>1100</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>594</v>
+      </c>
+      <c r="D6">
+        <v>4.3</v>
+      </c>
+      <c r="E6">
+        <v>1300</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>3.7</v>
+      </c>
+      <c r="E7">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>797</v>
+      </c>
+      <c r="D8">
+        <v>4.3</v>
+      </c>
+      <c r="E8">
+        <v>1400</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>37</v>
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>649</v>
+      </c>
+      <c r="D9">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E9">
+        <v>628</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>41</v>
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>593</v>
+      </c>
+      <c r="D10">
+        <v>3.8</v>
+      </c>
+      <c r="E10">
+        <v>6100</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
-        <v>45</v>
+        <v>23</v>
+      </c>
+      <c r="C11">
+        <v>493</v>
+      </c>
+      <c r="D11">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E11">
+        <v>1600</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" t="s">
-        <v>48</v>
+        <v>24</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" t="s">
-        <v>52</v>
+        <v>26</v>
+      </c>
+      <c r="C13">
+        <v>699</v>
+      </c>
+      <c r="D13">
+        <v>3.8</v>
+      </c>
+      <c r="E13">
+        <v>3100</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" t="s">
-        <v>57</v>
+        <v>28</v>
+      </c>
+      <c r="C14">
+        <v>666</v>
+      </c>
+      <c r="D14">
+        <v>3.2</v>
+      </c>
+      <c r="E14">
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" t="s">
-        <v>59</v>
+        <v>29</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>1200</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" t="s">
-        <v>63</v>
+        <v>31</v>
+      </c>
+      <c r="C16">
+        <v>626</v>
+      </c>
+      <c r="D16">
+        <v>4.3</v>
+      </c>
+      <c r="E16">
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" t="s">
-        <v>67</v>
+        <v>33</v>
+      </c>
+      <c r="C17">
+        <v>650</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>411</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" t="s">
-        <v>72</v>
+        <v>35</v>
+      </c>
+      <c r="C18">
+        <v>779</v>
+      </c>
+      <c r="D18">
+        <v>4.3</v>
+      </c>
+      <c r="E18">
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" t="s">
-        <v>76</v>
+        <v>37</v>
+      </c>
+      <c r="C19">
+        <v>524</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>1200</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" t="s">
-        <v>59</v>
+        <v>38</v>
+      </c>
+      <c r="C20">
+        <v>850</v>
+      </c>
+      <c r="D20">
+        <v>3.5</v>
+      </c>
+      <c r="E20">
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" t="s">
-        <v>83</v>
+        <v>40</v>
+      </c>
+      <c r="C21">
+        <v>489</v>
+      </c>
+      <c r="D21">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E21">
+        <v>352</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" t="s">
-        <v>87</v>
+        <v>41</v>
+      </c>
+      <c r="C22">
+        <v>524</v>
+      </c>
+      <c r="D22">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E22">
+        <v>6200</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" t="s">
-        <v>89</v>
+        <v>12</v>
+      </c>
+      <c r="D23">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E23">
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1250,457 +983,460 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" t="s">
-        <v>90</v>
+        <v>42</v>
+      </c>
+      <c r="C24">
+        <v>664</v>
+      </c>
+      <c r="D24">
+        <v>4.2</v>
+      </c>
+      <c r="E24">
+        <v>272</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" t="s">
-        <v>93</v>
+        <v>44</v>
+      </c>
+      <c r="C25">
+        <v>539</v>
+      </c>
+      <c r="D25">
+        <v>4.2</v>
+      </c>
+      <c r="E25">
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" t="s">
-        <v>97</v>
+        <v>46</v>
+      </c>
+      <c r="C26">
+        <v>419</v>
+      </c>
+      <c r="D26">
+        <v>4.5</v>
+      </c>
+      <c r="E26">
+        <v>36500</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
-      </c>
-      <c r="C27" t="s">
-        <v>100</v>
-      </c>
-      <c r="D27" t="s">
-        <v>101</v>
-      </c>
-      <c r="E27" t="s">
-        <v>102</v>
+        <v>47</v>
+      </c>
+      <c r="D27">
+        <v>4.5</v>
+      </c>
+      <c r="E27">
+        <v>1500</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>103</v>
-      </c>
-      <c r="D28" t="s">
-        <v>101</v>
-      </c>
-      <c r="E28" t="s">
-        <v>104</v>
+        <v>48</v>
+      </c>
+      <c r="C28">
+        <v>543</v>
+      </c>
+      <c r="D28">
+        <v>4.2</v>
+      </c>
+      <c r="E28">
+        <v>6200</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" t="s">
-        <v>106</v>
-      </c>
-      <c r="D29" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" t="s">
-        <v>89</v>
+        <v>49</v>
+      </c>
+      <c r="C29">
+        <v>999</v>
+      </c>
+      <c r="D29">
+        <v>4.3</v>
+      </c>
+      <c r="E29">
+        <v>1500</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" t="s">
-        <v>104</v>
+        <v>50</v>
+      </c>
+      <c r="C30">
+        <v>509</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <v>1900</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>108</v>
-      </c>
-      <c r="C31" t="s">
-        <v>109</v>
-      </c>
-      <c r="D31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31">
+        <v>4.3</v>
+      </c>
+      <c r="E31">
         <v>47</v>
-      </c>
-      <c r="E31" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>111</v>
-      </c>
-      <c r="D32" t="s">
-        <v>71</v>
-      </c>
-      <c r="E32" t="s">
-        <v>83</v>
+        <v>53</v>
+      </c>
+      <c r="C32">
+        <v>568</v>
+      </c>
+      <c r="D32">
+        <v>4.3</v>
+      </c>
+      <c r="E32">
+        <v>9500</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>113</v>
-      </c>
-      <c r="C33" t="s">
-        <v>114</v>
-      </c>
-      <c r="D33" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" t="s">
-        <v>115</v>
+        <v>54</v>
+      </c>
+      <c r="C33">
+        <v>626</v>
+      </c>
+      <c r="D33">
+        <v>4.2</v>
+      </c>
+      <c r="E33">
+        <v>692</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>116</v>
-      </c>
-      <c r="C34" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" t="s">
-        <v>71</v>
-      </c>
-      <c r="E34" t="s">
-        <v>117</v>
+        <v>55</v>
+      </c>
+      <c r="D34">
+        <v>4.8</v>
+      </c>
+      <c r="E34">
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="B35" t="s">
-        <v>118</v>
-      </c>
-      <c r="D35" t="s">
-        <v>119</v>
-      </c>
-      <c r="E35" t="s">
-        <v>48</v>
+        <v>57</v>
+      </c>
+      <c r="C35">
+        <v>399</v>
+      </c>
+      <c r="D35">
+        <v>3.4</v>
+      </c>
+      <c r="E35">
+        <v>187</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>121</v>
-      </c>
-      <c r="C36" t="s">
-        <v>122</v>
-      </c>
-      <c r="D36" t="s">
-        <v>123</v>
-      </c>
-      <c r="E36" t="s">
-        <v>124</v>
+        <v>26</v>
+      </c>
+      <c r="C36">
+        <v>569</v>
+      </c>
+      <c r="D36">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E36">
+        <v>8400</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" t="s">
-        <v>125</v>
-      </c>
-      <c r="D37" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" t="s">
-        <v>126</v>
+        <v>58</v>
+      </c>
+      <c r="C37">
+        <v>417</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="E37">
+        <v>1500</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B38" t="s">
-        <v>127</v>
-      </c>
-      <c r="C38" t="s">
-        <v>128</v>
-      </c>
-      <c r="D38" t="s">
-        <v>47</v>
-      </c>
-      <c r="E38" t="s">
-        <v>104</v>
+        <v>26</v>
+      </c>
+      <c r="C38">
+        <v>699</v>
+      </c>
+      <c r="D38">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E38">
+        <v>2400</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
-      </c>
-      <c r="C39" t="s">
-        <v>51</v>
-      </c>
-      <c r="D39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" t="s">
-        <v>129</v>
+        <v>59</v>
+      </c>
+      <c r="D39">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E39">
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="B40" t="s">
-        <v>130</v>
-      </c>
-      <c r="D40" t="s">
-        <v>131</v>
-      </c>
-      <c r="E40" t="s">
-        <v>132</v>
+        <v>61</v>
+      </c>
+      <c r="C40">
+        <v>987</v>
+      </c>
+      <c r="D40">
+        <v>4.2</v>
+      </c>
+      <c r="E40">
+        <v>860</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>133</v>
+        <v>62</v>
       </c>
       <c r="B41" t="s">
-        <v>134</v>
-      </c>
-      <c r="C41" t="s">
-        <v>135</v>
-      </c>
-      <c r="D41" t="s">
-        <v>71</v>
-      </c>
-      <c r="E41" t="s">
-        <v>136</v>
+        <v>63</v>
+      </c>
+      <c r="C41">
+        <v>698</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <v>1100</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>137</v>
+        <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>138</v>
-      </c>
-      <c r="C42" t="s">
-        <v>139</v>
-      </c>
-      <c r="D42" t="s">
-        <v>47</v>
-      </c>
-      <c r="E42" t="s">
-        <v>23</v>
+        <v>64</v>
+      </c>
+      <c r="C42">
+        <v>319</v>
+      </c>
+      <c r="D42">
+        <v>4</v>
+      </c>
+      <c r="E42">
+        <v>1500</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>140</v>
-      </c>
-      <c r="C43" t="s">
-        <v>141</v>
-      </c>
-      <c r="D43" t="s">
-        <v>47</v>
-      </c>
-      <c r="E43" t="s">
-        <v>104</v>
+        <v>65</v>
+      </c>
+      <c r="C43">
+        <v>447</v>
+      </c>
+      <c r="D43">
+        <v>4.2</v>
+      </c>
+      <c r="E43">
+        <v>1200</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>142</v>
-      </c>
-      <c r="C44" t="s">
-        <v>143</v>
-      </c>
-      <c r="D44" t="s">
-        <v>71</v>
-      </c>
-      <c r="E44" t="s">
-        <v>59</v>
+        <v>55</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="B45" t="s">
-        <v>118</v>
-      </c>
-      <c r="D45" t="s">
-        <v>144</v>
-      </c>
-      <c r="E45" t="s">
-        <v>145</v>
+        <v>67</v>
+      </c>
+      <c r="C45">
+        <v>539</v>
+      </c>
+      <c r="D45">
+        <v>4.3</v>
+      </c>
+      <c r="E45">
+        <v>5100</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>146</v>
+        <v>62</v>
       </c>
       <c r="B46" t="s">
-        <v>147</v>
-      </c>
-      <c r="C46" t="s">
-        <v>96</v>
-      </c>
-      <c r="D46" t="s">
-        <v>22</v>
-      </c>
-      <c r="E46" t="s">
-        <v>148</v>
+        <v>63</v>
+      </c>
+      <c r="C46">
+        <v>698</v>
+      </c>
+      <c r="D46">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E46">
+        <v>1000</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="B47" t="s">
-        <v>138</v>
-      </c>
-      <c r="C47" t="s">
-        <v>139</v>
-      </c>
-      <c r="D47" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47" t="s">
-        <v>149</v>
+        <v>69</v>
+      </c>
+      <c r="C47">
+        <v>436</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="B48" t="s">
-        <v>151</v>
-      </c>
-      <c r="C48" t="s">
-        <v>152</v>
-      </c>
-      <c r="D48" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48" t="s">
-        <v>153</v>
+        <v>70</v>
+      </c>
+      <c r="C48">
+        <v>428</v>
+      </c>
+      <c r="D48">
+        <v>4.3</v>
+      </c>
+      <c r="E48">
+        <v>2000</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>154</v>
-      </c>
-      <c r="C49" t="s">
-        <v>155</v>
-      </c>
-      <c r="D49" t="s">
-        <v>22</v>
-      </c>
-      <c r="E49" t="s">
-        <v>156</v>
+        <v>71</v>
+      </c>
+      <c r="C49">
+        <v>359</v>
+      </c>
+      <c r="D49">
+        <v>3.9</v>
+      </c>
+      <c r="E49">
+        <v>173</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="B50" t="s">
-        <v>157</v>
-      </c>
-      <c r="C50" t="s">
-        <v>158</v>
-      </c>
-      <c r="D50" t="s">
-        <v>144</v>
-      </c>
-      <c r="E50" t="s">
-        <v>159</v>
+        <v>73</v>
+      </c>
+      <c r="C50">
+        <v>368</v>
+      </c>
+      <c r="D50">
+        <v>4.2</v>
+      </c>
+      <c r="E50">
+        <v>3500</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="B51" t="s">
-        <v>161</v>
-      </c>
-      <c r="C51" t="s">
-        <v>162</v>
-      </c>
-      <c r="D51" t="s">
-        <v>71</v>
-      </c>
-      <c r="E51" t="s">
-        <v>163</v>
+        <v>75</v>
+      </c>
+      <c r="C51">
+        <v>415</v>
+      </c>
+      <c r="D51">
+        <v>4.2</v>
+      </c>
+      <c r="E51">
+        <v>10300</v>
       </c>
     </row>
   </sheetData>
